--- a/data/trans_bre/P1419-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1419-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.999012929899422</v>
+        <v>9.81517497258954</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.08752698974693</v>
+        <v>10.00833813232183</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.084455967395168</v>
+        <v>6.736591356450497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.588487523983728</v>
+        <v>8.343824841027194</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.605697812660926</v>
+        <v>1.599461604088009</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>3.271668095679495</v>
+        <v>3.175541197096893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.955588419589082</v>
+        <v>1.943652585274097</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.9861119459814783</v>
+        <v>0.9564697940398464</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.08827064066628</v>
+        <v>14.55730642120009</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.26562194088206</v>
+        <v>14.44821364398722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.03123915065844</v>
+        <v>11.6328328096468</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.2647706362656</v>
+        <v>14.3237366893446</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.651093870533738</v>
+        <v>3.572325725408025</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>9.30052698533129</v>
+        <v>9.581483740748716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7.175869587501097</v>
+        <v>6.858525295730405</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.746711879357492</v>
+        <v>2.704138420903427</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.025912093341645</v>
+        <v>3.227421047050038</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.270622118824251</v>
+        <v>3.168094011839897</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.966091768034981</v>
+        <v>1.887439510670995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.747441623109636</v>
+        <v>4.808584303142748</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.181332892819478</v>
+        <v>1.183766973208126</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.41467179564652</v>
+        <v>2.389179867034521</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.096054358139041</v>
+        <v>1.096630278275831</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.152183525837719</v>
+        <v>1.177415738255784</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.010000303824639</v>
+        <v>6.067475144688108</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.695433974781483</v>
+        <v>5.643274657685164</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.049950719087042</v>
+        <v>4.136728723028488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.485394490288611</v>
+        <v>7.307991936451222</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.066073563807493</v>
+        <v>3.740918428145947</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>9.863672190348723</v>
+        <v>9.888410164912283</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.010315834103912</v>
+        <v>4.413254298376541</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.535650713176369</v>
+        <v>2.544956411697648</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.691409083352538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.193794079116298</v>
+        <v>4.193794079116299</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.914995062331277</v>
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.692938364213777</v>
+        <v>1.41626713043807</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.167829361405282</v>
+        <v>1.041576596597686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.06176577289473364</v>
+        <v>-0.05221810048331921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.401690212338162</v>
+        <v>2.397601934893568</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5170438070934309</v>
+        <v>0.3477314050566013</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.2627714055366479</v>
+        <v>-0.3208413961812995</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6637925676551378</v>
+        <v>0.6675471753145873</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.729391987412203</v>
+        <v>6.995688132343314</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.861895784918805</v>
+        <v>4.615283008357329</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.812387574445574</v>
+        <v>3.669148407047133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.153534296041611</v>
+        <v>6.029770694452054</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.521354440984988</v>
+        <v>4.926173704834313</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>7.015666016057412</v>
+        <v>6.739733641112992</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>3.409203097820447</v>
+        <v>3.591941063406494</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.564046803809926</v>
+        <v>6.558476996694306</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.194708850482196</v>
+        <v>6.271548296142465</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.677317746222685</v>
+        <v>3.69779716792765</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.054074280299104</v>
+        <v>5.994587392892728</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.875235963584481</v>
+        <v>1.838985328247398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3.794074404552211</v>
+        <v>4.087227311298173</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.945509104662484</v>
+        <v>1.945872836852168</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.425595539026733</v>
+        <v>1.403272736737772</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.094755432116983</v>
+        <v>9.115717063216163</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.323416928625758</v>
+        <v>8.295222998077262</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.617512418559267</v>
+        <v>5.599418351798985</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.01186011402101</v>
+        <v>8.131831192812253</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.490625525946128</v>
+        <v>3.502076004546864</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.891880650749952</v>
+        <v>9.248914857315309</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.394133136732577</v>
+        <v>4.522869824150642</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.425013479439842</v>
+        <v>2.446428836184651</v>
       </c>
     </row>
     <row r="16">
